--- a/Results/Notebook 2 Example 2/Scores/average_scores.xlsx
+++ b/Results/Notebook 2 Example 2/Scores/average_scores.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -459,12 +459,12 @@
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>0.020±0.006</t>
+          <t>0.017±0.002</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0.191±0.025</t>
+          <t>0.206±0.009</t>
         </is>
       </c>
     </row>
@@ -476,12 +476,12 @@
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
-          <t>0.081±0.015</t>
+          <t>0.080±0.018</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0.236±0.026</t>
+          <t>0.228±0.033</t>
         </is>
       </c>
     </row>
@@ -493,12 +493,12 @@
       </c>
       <c r="B4" s="2" t="inlineStr">
         <is>
-          <t>0.708±0.205</t>
+          <t>0.701±0.187</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0.295±0.161</t>
+          <t>0.309±0.188</t>
         </is>
       </c>
     </row>
@@ -510,12 +510,12 @@
       </c>
       <c r="B5" s="2" t="inlineStr">
         <is>
-          <t>0.972±0.026</t>
+          <t>0.976±0.019</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0.384±0.050</t>
+          <t>0.423±0.036</t>
         </is>
       </c>
     </row>
@@ -527,12 +527,12 @@
       </c>
       <c r="B6" s="2" t="inlineStr">
         <is>
-          <t>0.916±0.077</t>
+          <t>0.882±0.104</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>0.648±0.157</t>
+          <t>0.666±0.141</t>
         </is>
       </c>
     </row>
@@ -544,12 +544,12 @@
       </c>
       <c r="B7" s="2" t="inlineStr">
         <is>
-          <t>0.773±0.215</t>
+          <t>0.755±0.208</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>0.195±0.129</t>
+          <t>0.204±0.138</t>
         </is>
       </c>
     </row>
@@ -561,12 +561,12 @@
       </c>
       <c r="B8" s="2" t="inlineStr">
         <is>
-          <t>0.007±0.003</t>
+          <t>0.008±0.002</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>0.205±0.032</t>
+          <t>0.212±0.034</t>
         </is>
       </c>
     </row>
@@ -578,12 +578,12 @@
       </c>
       <c r="B9" s="2" t="inlineStr">
         <is>
-          <t>0.140±0.058</t>
+          <t>0.119±0.047</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>0.198±0.059</t>
+          <t>0.199±0.038</t>
         </is>
       </c>
     </row>
@@ -595,12 +595,12 @@
       </c>
       <c r="B10" s="2" t="inlineStr">
         <is>
-          <t>0.664±0.168</t>
+          <t>0.722±0.072</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>0.425±0.113</t>
+          <t>0.481±0.103</t>
         </is>
       </c>
     </row>
